--- a/data/misspops.xlsx
+++ b/data/misspops.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\Geog 575\lab 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Laura\Documents\geog575\lab1\geog575\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB15E31-37B5-45CE-91E7-86EF9933EA0F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C8E8F2-CB03-4438-AD9E-360A3775F364}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1490" yWindow="2800" windowWidth="21500" windowHeight="12950" xr2:uid="{37E4BBC6-E313-463A-B558-A776AB6D806A}"/>
+    <workbookView xWindow="1670" yWindow="890" windowWidth="21500" windowHeight="12950" xr2:uid="{37E4BBC6-E313-463A-B558-A776AB6D806A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Fid</t>
   </si>
@@ -151,21 +151,6 @@
     <t>La Crosse</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>source cont</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Arkansas_City,_Arkansas</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20150426102944/http://www.census.gov/prod/www/decennial.html</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Memphis,_Tennessee</t>
-  </si>
-  <si>
     <t>current est</t>
   </si>
   <si>
@@ -173,19 +158,13 @@
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>lon</t>
-  </si>
-  <si>
-    <t>lat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,14 +196,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -243,11 +214,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
@@ -256,10 +226,8 @@
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,20 +540,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCAAD86-F336-4425-88E3-4519522AA9BC}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="5" width="16.36328125" customWidth="1"/>
-    <col min="6" max="16" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.36328125" customWidth="1"/>
+    <col min="4" max="14" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,58 +564,46 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="E1">
+        <v>2010</v>
+      </c>
+      <c r="F1">
+        <v>2000</v>
       </c>
       <c r="G1">
-        <v>2010</v>
+        <v>1990</v>
       </c>
       <c r="H1">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="I1">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="J1">
-        <v>1980</v>
+        <v>1960</v>
       </c>
       <c r="K1">
-        <v>1970</v>
+        <v>1950</v>
       </c>
       <c r="L1">
-        <v>1960</v>
+        <v>1940</v>
       </c>
       <c r="M1">
-        <v>1950</v>
+        <v>1930</v>
       </c>
       <c r="N1">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="O1">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="P1">
-        <v>1920</v>
-      </c>
-      <c r="Q1">
-        <v>1910</v>
-      </c>
-      <c r="R1">
         <v>1900</v>
       </c>
-      <c r="S1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -658,58 +614,46 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>-97.039010000000005</v>
+        <v>318</v>
       </c>
       <c r="E2">
-        <v>37.062330000000003</v>
+        <v>366</v>
       </c>
       <c r="F2">
-        <v>318</v>
+        <v>589</v>
       </c>
       <c r="G2">
-        <v>366</v>
+        <v>523</v>
       </c>
       <c r="H2">
-        <v>589</v>
+        <v>668</v>
       </c>
       <c r="I2">
-        <v>523</v>
+        <v>615</v>
       </c>
       <c r="J2">
-        <v>668</v>
+        <v>783</v>
       </c>
       <c r="K2">
-        <v>615</v>
+        <v>1018</v>
       </c>
       <c r="L2">
-        <v>783</v>
+        <v>1446</v>
       </c>
       <c r="M2">
-        <v>1018</v>
+        <v>1432</v>
       </c>
       <c r="N2">
-        <v>1446</v>
+        <v>1482</v>
       </c>
       <c r="O2">
-        <v>1432</v>
+        <v>1485</v>
       </c>
       <c r="P2">
-        <v>1482</v>
-      </c>
-      <c r="Q2">
-        <v>1485</v>
-      </c>
-      <c r="R2">
         <v>1091</v>
       </c>
-      <c r="S2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -720,55 +664,46 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>-90.048980999999998</v>
+        <v>650618</v>
       </c>
       <c r="E3">
-        <v>35.149532000000001</v>
+        <v>646889</v>
       </c>
       <c r="F3">
-        <v>650618</v>
+        <v>650100</v>
       </c>
       <c r="G3">
-        <v>646889</v>
+        <v>610337</v>
       </c>
       <c r="H3">
-        <v>650100</v>
+        <v>646174</v>
       </c>
       <c r="I3">
-        <v>610337</v>
+        <v>623988</v>
       </c>
       <c r="J3">
-        <v>646174</v>
+        <v>497524</v>
       </c>
       <c r="K3">
-        <v>623988</v>
+        <v>396000</v>
       </c>
       <c r="L3">
-        <v>497524</v>
+        <v>292942</v>
       </c>
       <c r="M3">
-        <v>396000</v>
+        <v>253143</v>
       </c>
       <c r="N3">
-        <v>292942</v>
+        <v>162351</v>
       </c>
       <c r="O3">
-        <v>253143</v>
+        <v>131105</v>
       </c>
       <c r="P3">
-        <v>162351</v>
-      </c>
-      <c r="Q3">
-        <v>131105</v>
-      </c>
-      <c r="R3">
         <v>102320</v>
       </c>
-      <c r="S3" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -778,53 +713,47 @@
       <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="3">
-        <v>-93.265015000000005</v>
-      </c>
-      <c r="E4" s="3">
-        <v>44.977753</v>
+      <c r="D4">
+        <v>425403</v>
+      </c>
+      <c r="E4">
+        <v>382578</v>
       </c>
       <c r="F4">
-        <v>425403</v>
+        <v>382618</v>
       </c>
       <c r="G4">
-        <v>382578</v>
+        <v>368383</v>
       </c>
       <c r="H4">
-        <v>382618</v>
+        <v>370951</v>
       </c>
       <c r="I4">
-        <v>368383</v>
+        <v>434400</v>
       </c>
       <c r="J4">
-        <v>370951</v>
+        <v>482872</v>
       </c>
       <c r="K4">
-        <v>434400</v>
+        <v>521718</v>
       </c>
       <c r="L4">
-        <v>482872</v>
+        <v>492370</v>
       </c>
       <c r="M4">
-        <v>521718</v>
+        <v>464356</v>
       </c>
       <c r="N4">
-        <v>492370</v>
+        <v>380582</v>
       </c>
       <c r="O4">
-        <v>464356</v>
+        <v>301408</v>
       </c>
       <c r="P4">
-        <v>380582</v>
-      </c>
-      <c r="Q4">
-        <v>301408</v>
-      </c>
-      <c r="R4">
         <v>202718</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -835,52 +764,46 @@
         <v>20</v>
       </c>
       <c r="D5">
-        <v>-90.071533000000002</v>
+        <v>391006</v>
       </c>
       <c r="E5">
-        <v>29.951065</v>
+        <v>343829</v>
       </c>
       <c r="F5">
-        <v>391006</v>
+        <v>484674</v>
       </c>
       <c r="G5">
-        <v>343829</v>
+        <v>496938</v>
       </c>
       <c r="H5">
-        <v>484674</v>
+        <v>557515</v>
       </c>
       <c r="I5">
-        <v>496938</v>
+        <v>593471</v>
       </c>
       <c r="J5">
-        <v>557515</v>
+        <v>627525</v>
       </c>
       <c r="K5">
-        <v>593471</v>
+        <v>570445</v>
       </c>
       <c r="L5">
-        <v>627525</v>
+        <v>494537</v>
       </c>
       <c r="M5">
-        <v>570445</v>
+        <v>458762</v>
       </c>
       <c r="N5">
-        <v>494537</v>
+        <v>387219</v>
       </c>
       <c r="O5">
-        <v>458762</v>
+        <v>339075</v>
       </c>
       <c r="P5">
-        <v>387219</v>
-      </c>
-      <c r="Q5">
-        <v>339075</v>
-      </c>
-      <c r="R5">
         <v>287104</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -890,53 +813,47 @@
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3">
-        <v>-90.199402000000006</v>
-      </c>
-      <c r="E6" s="3">
-        <v>38.627003000000002</v>
+      <c r="D6">
+        <v>302838</v>
+      </c>
+      <c r="E6">
+        <v>319294</v>
       </c>
       <c r="F6">
-        <v>302838</v>
+        <v>348189</v>
       </c>
       <c r="G6">
-        <v>319294</v>
+        <v>396685</v>
       </c>
       <c r="H6">
-        <v>348189</v>
+        <v>453805</v>
       </c>
       <c r="I6">
-        <v>396685</v>
+        <v>622236</v>
       </c>
       <c r="J6">
-        <v>453805</v>
+        <v>750026</v>
       </c>
       <c r="K6">
-        <v>622236</v>
+        <v>856796</v>
       </c>
       <c r="L6">
-        <v>750026</v>
+        <v>816048</v>
       </c>
       <c r="M6">
-        <v>856796</v>
+        <v>821960</v>
       </c>
       <c r="N6">
-        <v>816048</v>
+        <v>772897</v>
       </c>
       <c r="O6">
-        <v>821960</v>
+        <v>687029</v>
       </c>
       <c r="P6">
-        <v>772897</v>
-      </c>
-      <c r="Q6">
-        <v>687029</v>
-      </c>
-      <c r="R6">
         <v>575238</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -946,53 +863,47 @@
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3">
-        <v>-93.089957999999996</v>
-      </c>
-      <c r="E7" s="3">
-        <v>44.953704999999999</v>
+      <c r="D7">
+        <v>307695</v>
+      </c>
+      <c r="E7">
+        <v>285068</v>
       </c>
       <c r="F7">
-        <v>307695</v>
+        <v>287151</v>
       </c>
       <c r="G7">
-        <v>285068</v>
+        <v>272235</v>
       </c>
       <c r="H7">
-        <v>287151</v>
+        <v>270230</v>
       </c>
       <c r="I7">
-        <v>272235</v>
+        <v>309980</v>
       </c>
       <c r="J7">
-        <v>270230</v>
+        <v>313411</v>
       </c>
       <c r="K7">
-        <v>309980</v>
+        <v>311349</v>
       </c>
       <c r="L7">
-        <v>313411</v>
+        <v>287736</v>
       </c>
       <c r="M7">
-        <v>311349</v>
+        <v>271606</v>
       </c>
       <c r="N7">
-        <v>287736</v>
+        <v>234698</v>
       </c>
       <c r="O7">
-        <v>271606</v>
+        <v>214744</v>
       </c>
       <c r="P7">
-        <v>234698</v>
-      </c>
-      <c r="Q7">
-        <v>214744</v>
-      </c>
-      <c r="R7">
         <v>163065</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1003,52 +914,46 @@
         <v>19</v>
       </c>
       <c r="D8">
-        <v>-91.187149000000005</v>
+        <v>221599</v>
       </c>
       <c r="E8">
-        <v>30.451467999999998</v>
+        <v>229493</v>
       </c>
       <c r="F8">
-        <v>221599</v>
+        <v>227818</v>
       </c>
       <c r="G8">
-        <v>229493</v>
+        <v>219531</v>
       </c>
       <c r="H8">
-        <v>227818</v>
+        <v>220394</v>
       </c>
       <c r="I8">
-        <v>219531</v>
+        <v>165921</v>
       </c>
       <c r="J8">
-        <v>220394</v>
+        <v>152419</v>
       </c>
       <c r="K8">
-        <v>165921</v>
+        <v>125629</v>
       </c>
       <c r="L8">
-        <v>152419</v>
+        <v>34719</v>
       </c>
       <c r="M8">
-        <v>125629</v>
+        <v>30729</v>
       </c>
       <c r="N8">
-        <v>34719</v>
+        <v>21782</v>
       </c>
       <c r="O8">
-        <v>30729</v>
+        <v>14897</v>
       </c>
       <c r="P8">
-        <v>21782</v>
-      </c>
-      <c r="Q8">
-        <v>14897</v>
-      </c>
-      <c r="R8">
         <v>11269</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1059,52 +964,46 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>-90.577636999999996</v>
+        <v>102085</v>
       </c>
       <c r="E9">
-        <v>41.523643</v>
+        <v>99685</v>
       </c>
       <c r="F9">
-        <v>102085</v>
+        <v>98359</v>
       </c>
       <c r="G9">
-        <v>99685</v>
+        <v>95333</v>
       </c>
       <c r="H9">
-        <v>98359</v>
+        <v>103264</v>
       </c>
       <c r="I9">
-        <v>95333</v>
+        <v>98469</v>
       </c>
       <c r="J9">
-        <v>103264</v>
+        <v>88981</v>
       </c>
       <c r="K9">
-        <v>98469</v>
+        <v>74549</v>
       </c>
       <c r="L9">
-        <v>88981</v>
+        <v>66039</v>
       </c>
       <c r="M9">
-        <v>74549</v>
+        <v>60751</v>
       </c>
       <c r="N9">
-        <v>66039</v>
+        <v>56727</v>
       </c>
       <c r="O9">
-        <v>60751</v>
+        <v>43028</v>
       </c>
       <c r="P9">
-        <v>56727</v>
-      </c>
-      <c r="Q9">
-        <v>43028</v>
-      </c>
-      <c r="R9">
         <v>35254</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1114,53 +1013,47 @@
       <c r="C10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="3">
-        <v>-93.526871</v>
-      </c>
-      <c r="E10" s="3">
-        <v>47.231400000000001</v>
+      <c r="D10">
+        <v>200217</v>
+      </c>
+      <c r="E10">
+        <v>188040</v>
       </c>
       <c r="F10">
-        <v>200217</v>
+        <v>197800</v>
       </c>
       <c r="G10">
-        <v>188040</v>
+        <v>189126</v>
       </c>
       <c r="H10">
-        <v>197800</v>
+        <v>181843</v>
       </c>
       <c r="I10">
-        <v>189126</v>
+        <v>197649</v>
       </c>
       <c r="J10">
-        <v>181843</v>
+        <v>177313</v>
       </c>
       <c r="K10">
-        <v>197649</v>
+        <v>176515</v>
       </c>
       <c r="L10">
-        <v>177313</v>
+        <v>164292</v>
       </c>
       <c r="M10">
-        <v>176515</v>
+        <v>168592</v>
       </c>
       <c r="N10">
-        <v>164292</v>
+        <v>137634</v>
       </c>
       <c r="O10">
-        <v>168592</v>
+        <v>112571</v>
       </c>
       <c r="P10">
-        <v>137634</v>
-      </c>
-      <c r="Q10">
-        <v>112571</v>
-      </c>
-      <c r="R10">
         <v>87565</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1170,53 +1063,47 @@
       <c r="C11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3">
-        <v>-94.163239000000004</v>
-      </c>
-      <c r="E11" s="3">
-        <v>45.557944999999997</v>
+      <c r="D11">
+        <v>68043</v>
+      </c>
+      <c r="E11">
+        <v>65842</v>
       </c>
       <c r="F11">
-        <v>68043</v>
+        <v>59108</v>
       </c>
       <c r="G11">
-        <v>65842</v>
+        <v>48812</v>
       </c>
       <c r="H11">
-        <v>59108</v>
+        <v>42566</v>
       </c>
       <c r="I11">
-        <v>48812</v>
+        <v>39691</v>
       </c>
       <c r="J11">
-        <v>42566</v>
+        <v>32415</v>
       </c>
       <c r="K11">
-        <v>39691</v>
+        <v>28410</v>
       </c>
       <c r="L11">
-        <v>32415</v>
+        <v>24173</v>
       </c>
       <c r="M11">
-        <v>28410</v>
+        <v>21000</v>
       </c>
       <c r="N11">
-        <v>24173</v>
+        <v>15873</v>
       </c>
       <c r="O11">
-        <v>21000</v>
+        <v>10600</v>
       </c>
       <c r="P11">
-        <v>15873</v>
-      </c>
-      <c r="Q11">
-        <v>10600</v>
-      </c>
-      <c r="R11">
         <v>8663</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1226,53 +1113,47 @@
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="3">
-        <v>-91.251859999999994</v>
-      </c>
-      <c r="E12" s="3">
-        <v>43.808770000000003</v>
+      <c r="D12">
+        <v>51567</v>
+      </c>
+      <c r="E12">
+        <v>51320</v>
       </c>
       <c r="F12">
-        <v>51567</v>
+        <v>51818</v>
       </c>
       <c r="G12">
-        <v>51320</v>
+        <v>51140</v>
       </c>
       <c r="H12">
-        <v>51818</v>
+        <v>48347</v>
       </c>
       <c r="I12">
-        <v>51140</v>
+        <v>50286</v>
       </c>
       <c r="J12">
-        <v>48347</v>
+        <v>47258</v>
       </c>
       <c r="K12">
-        <v>50286</v>
+        <v>47535</v>
       </c>
       <c r="L12">
-        <v>47258</v>
+        <v>42707</v>
       </c>
       <c r="M12">
-        <v>47535</v>
+        <v>39614</v>
       </c>
       <c r="N12">
-        <v>42707</v>
+        <v>30421</v>
       </c>
       <c r="O12">
-        <v>39614</v>
+        <v>30417</v>
       </c>
       <c r="P12">
-        <v>30421</v>
-      </c>
-      <c r="Q12">
-        <v>30417</v>
-      </c>
-      <c r="R12">
         <v>28895</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1283,52 +1164,46 @@
         <v>21</v>
       </c>
       <c r="D13">
-        <v>-90.882462000000004</v>
+        <v>22136</v>
       </c>
       <c r="E13">
-        <v>32.348140999999998</v>
+        <v>23856</v>
       </c>
       <c r="F13">
-        <v>22136</v>
+        <v>26407</v>
       </c>
       <c r="G13">
-        <v>23856</v>
+        <v>20908</v>
       </c>
       <c r="H13">
-        <v>26407</v>
+        <v>25434</v>
       </c>
       <c r="I13">
-        <v>20908</v>
+        <v>25478</v>
       </c>
       <c r="J13">
-        <v>25434</v>
+        <v>29143</v>
       </c>
       <c r="K13">
-        <v>25478</v>
+        <v>27948</v>
       </c>
       <c r="L13">
-        <v>29143</v>
+        <v>24460</v>
       </c>
       <c r="M13">
-        <v>27948</v>
+        <v>22943</v>
       </c>
       <c r="N13">
-        <v>24460</v>
+        <v>18072</v>
       </c>
       <c r="O13">
-        <v>22943</v>
+        <v>20814</v>
       </c>
       <c r="P13">
-        <v>18072</v>
-      </c>
-      <c r="Q13">
-        <v>20814</v>
-      </c>
-      <c r="R13">
         <v>14834</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1339,52 +1214,46 @@
         <v>21</v>
       </c>
       <c r="D14">
-        <v>-91.403167999999994</v>
+        <v>15009</v>
       </c>
       <c r="E14">
-        <v>31.560444</v>
+        <v>15792</v>
       </c>
       <c r="F14">
-        <v>15009</v>
+        <v>18464</v>
       </c>
       <c r="G14">
-        <v>15792</v>
+        <v>19535</v>
       </c>
       <c r="H14">
-        <v>18464</v>
+        <v>22015</v>
       </c>
       <c r="I14">
-        <v>19535</v>
+        <v>19704</v>
       </c>
       <c r="J14">
-        <v>22015</v>
+        <v>23791</v>
       </c>
       <c r="K14">
-        <v>19704</v>
+        <v>22740</v>
       </c>
       <c r="L14">
-        <v>23791</v>
+        <v>15296</v>
       </c>
       <c r="M14">
-        <v>22740</v>
+        <v>13422</v>
       </c>
       <c r="N14">
-        <v>15296</v>
+        <v>12608</v>
       </c>
       <c r="O14">
-        <v>13422</v>
+        <v>11791</v>
       </c>
       <c r="P14">
-        <v>12608</v>
-      </c>
-      <c r="Q14">
-        <v>11791</v>
-      </c>
-      <c r="R14">
         <v>12210</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1394,53 +1263,47 @@
       <c r="C15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="1">
-        <v>-91.388750000000002</v>
-      </c>
-      <c r="E15" s="1">
-        <v>39.93553</v>
+      <c r="D15">
+        <v>40042</v>
+      </c>
+      <c r="E15">
+        <v>40633</v>
       </c>
       <c r="F15">
-        <v>40042</v>
+        <v>40366</v>
       </c>
       <c r="G15">
-        <v>40633</v>
+        <v>39681</v>
       </c>
       <c r="H15">
-        <v>40366</v>
+        <v>42554</v>
       </c>
       <c r="I15">
-        <v>39681</v>
+        <v>45288</v>
       </c>
       <c r="J15">
-        <v>42554</v>
+        <v>43793</v>
       </c>
       <c r="K15">
-        <v>45288</v>
+        <v>41450</v>
       </c>
       <c r="L15">
-        <v>43793</v>
+        <v>40469</v>
       </c>
       <c r="M15">
-        <v>41450</v>
+        <v>39241</v>
       </c>
       <c r="N15">
-        <v>40469</v>
+        <v>35978</v>
       </c>
       <c r="O15">
-        <v>39241</v>
+        <v>36587</v>
       </c>
       <c r="P15">
-        <v>35978</v>
-      </c>
-      <c r="Q15">
-        <v>36587</v>
-      </c>
-      <c r="R15">
         <v>36252</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1451,108 +1314,97 @@
         <v>26</v>
       </c>
       <c r="D16">
-        <v>-92.800880000000006</v>
+        <v>4272</v>
       </c>
       <c r="E16">
-        <v>44.749310000000001</v>
+        <v>4258</v>
       </c>
       <c r="F16">
-        <v>4272</v>
+        <v>3764</v>
       </c>
       <c r="G16">
-        <v>4258</v>
+        <v>3243</v>
       </c>
       <c r="H16">
-        <v>3764</v>
+        <v>2654</v>
       </c>
       <c r="I16">
-        <v>3243</v>
+        <v>2331</v>
       </c>
       <c r="J16">
-        <v>2654</v>
+        <v>1536</v>
       </c>
       <c r="K16">
-        <v>2331</v>
+        <v>1005</v>
       </c>
       <c r="L16">
-        <v>1536</v>
+        <v>857</v>
       </c>
       <c r="M16">
-        <v>1005</v>
+        <v>755</v>
       </c>
       <c r="N16">
-        <v>857</v>
+        <v>892</v>
       </c>
       <c r="O16">
-        <v>755</v>
+        <v>936</v>
       </c>
       <c r="P16">
-        <v>892</v>
-      </c>
-      <c r="Q16">
-        <v>936</v>
-      </c>
-      <c r="R16">
         <v>1002</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>327167434</v>
+      </c>
+      <c r="E17">
+        <v>308745538</v>
       </c>
       <c r="F17">
-        <v>327167434</v>
+        <v>281421906</v>
       </c>
       <c r="G17">
-        <v>308745538</v>
+        <v>248709873</v>
       </c>
       <c r="H17">
-        <v>281421906</v>
+        <v>226545805</v>
       </c>
       <c r="I17">
-        <v>248709873</v>
+        <v>203211926</v>
       </c>
       <c r="J17">
-        <v>226545805</v>
+        <v>179323175</v>
       </c>
       <c r="K17">
-        <v>203211926</v>
+        <v>151325798</v>
       </c>
       <c r="L17">
-        <v>179323175</v>
+        <v>132164569</v>
       </c>
       <c r="M17">
-        <v>151325798</v>
+        <v>123202624</v>
       </c>
       <c r="N17">
-        <v>132164569</v>
+        <v>106021537</v>
       </c>
       <c r="O17">
-        <v>123202624</v>
+        <v>92228496</v>
       </c>
       <c r="P17">
-        <v>106021537</v>
-      </c>
-      <c r="Q17">
-        <v>92228496</v>
-      </c>
-      <c r="R17">
         <v>76212168</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{DBE14BB0-B546-4F68-836E-F202FC4EC0E8}"/>
-    <hyperlink ref="T2" r:id="rId2" display="https://web.archive.org/web/20150426102944/http:/www.census.gov/prod/www/decennial.html" xr:uid="{926CF939-ED85-464A-8309-E4C1FCC7A2D6}"/>
-    <hyperlink ref="S3" r:id="rId3" xr:uid="{B5E004D8-7F01-4CC1-A50C-DC26DF8F1FC2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>